--- a/biology/Zoologie/Exechia_distincta/Exechia_distincta.xlsx
+++ b/biology/Zoologie/Exechia_distincta/Exechia_distincta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Exechia distincta est une espèce fossile d'insectes diptères de la famille des Mycetophilidae et du genre Exechia.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Exechia distincta est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-L'holotype My 2 appartient à la collection Förster du service de la carte géologique A. L. et vient des marnes en plaquettes du Sannoisien moyen de la localité de Brunstatt quartier de la banlieue de Mulhouse dans le département du Haut-Rhin en Alsace.
-Confirmation du genre Exechia
-L'appartenance au genre Exechia est confirmée en 2021 par Sarah Siqueira Oliveira (d) et Dalton de Souza Amorim (d)[3],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Exechia distincta est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -543,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 1]
-« Insecte de petite taille, teinte jaunâtre. Tête arrondie, yeux presque contigus. Thorax ovale, fortement bombé. Abdomen allongé, 6 segments (♂), rétrécis vers l'arrière. Pattes longues et grêles. Ailes plus courtes que l'abdomen, nervation identique à celle du g. Exechia ; M ramifiée près de la nervure transversale R-M ; Cu bifurqué plus loin vers le sommet. »[1].
-Dimensions
-La longueur du corps est de 3 mm et la longueur des ailes est de 2,2 mm[1].
-Affinités
-« L'échantillon avait été étiqueté Epicypta cf. nigritella Heer par Förster. Mais il diffère de l'original figué par Förster (pl. XIV, fig. 9) sous ce nom et qui est conservé dans la même collection. Il ne s'agit pas du g. Epicypta dans lequel la nervure Cu se bifurque plus près de la base de l'aile. »[1].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype My 2 appartient à la collection Förster du service de la carte géologique A. L. et vient des marnes en plaquettes du Sannoisien moyen de la localité de Brunstatt quartier de la banlieue de Mulhouse dans le département du Haut-Rhin en Alsace.
 </t>
         </is>
       </c>
@@ -580,13 +590,165 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confirmation du genre Exechia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appartenance au genre Exechia est confirmée en 2021 par Sarah Siqueira Oliveira (d) et Dalton de Souza Amorim (d),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Exechia_distincta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exechia_distincta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1]
+« Insecte de petite taille, teinte jaunâtre. Tête arrondie, yeux presque contigus. Thorax ovale, fortement bombé. Abdomen allongé, 6 segments (♂), rétrécis vers l'arrière. Pattes longues et grêles. Ailes plus courtes que l'abdomen, nervation identique à celle du g. Exechia ; M ramifiée près de la nervure transversale R-M ; Cu bifurqué plus loin vers le sommet. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Exechia_distincta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exechia_distincta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur du corps est de 3 mm et la longueur des ailes est de 2,2 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Exechia_distincta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exechia_distincta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« L'échantillon avait été étiqueté Epicypta cf. nigritella Heer par Förster. Mais il diffère de l'original figué par Förster (pl. XIV, fig. 9) sous ce nom et qui est conservé dans la même collection. Il ne s'agit pas du g. Epicypta dans lequel la nervure Cu se bifurque plus près de la base de l'aile. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Exechia_distincta</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exechia_distincta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Les larves d'Exechia vivent dans les champignons. Ce genre est représenté par une cinquantaine d'espèces répandues en Europe, en Amérique du Nord, en Australie. »[1].
+« Les larves d'Exechia vivent dans les champignons. Ce genre est représenté par une cinquantaine d'espèces répandues en Europe, en Amérique du Nord, en Australie. ».
 </t>
         </is>
       </c>
